--- a/Material/timesheet.xlsx
+++ b/Material/timesheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Dia</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Evolução das telas de pedido. (Reorganização e definição de todos os estados/regras)</t>
+  </si>
+  <si>
+    <t>Ponta-pé inicial da parte de fidelidade do sistema</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,10 +517,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="1">
+        <v>42619</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.875</v>
+      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">

--- a/Material/timesheet.xlsx
+++ b/Material/timesheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -47,7 +47,10 @@
     <t>Evolução das telas de pedido. (Reorganização e definição de todos os estados/regras)</t>
   </si>
   <si>
-    <t>Ponta-pé inicial da parte de fidelidade do sistema</t>
+    <t>Ponta-pé inicial da parte de fidelidade do sistema(Tela e definições básicas)</t>
+  </si>
+  <si>
+    <t>Definição final sobre o funcionamento da fidelidade</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,17 +526,25 @@
       <c r="B3" s="2">
         <v>0.875</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="1">
+        <v>42622</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/Material/timesheet.xlsx
+++ b/Material/timesheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Dia</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Definição final sobre o funcionamento da fidelidade</t>
+  </si>
+  <si>
+    <t>Estudo e implantação do sessionStorage + login</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,10 +551,18 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="1">
+        <v>42626</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/Material/timesheet.xlsx
+++ b/Material/timesheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Dia</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Estudo e implantação do sessionStorage + login</t>
+  </si>
+  <si>
+    <t>Implementação do cadastrar cliente</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,10 +569,18 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="1">
+        <v>42627</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">

--- a/Material/timesheet.xlsx
+++ b/Material/timesheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Dia</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Implementação do cadastrar cliente</t>
+  </si>
+  <si>
+    <t>Implementação do login com ramificação. Implementação do CRUD de motoboy</t>
+  </si>
+  <si>
+    <t>Estudo e tentativa de confirmação para exclusão da conta do cliente</t>
   </si>
 </sst>
 </file>
@@ -480,7 +486,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,17 +590,33 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="1">
+        <v>42627</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="1">
+        <v>42627</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">

--- a/Material/timesheet.xlsx
+++ b/Material/timesheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Dia</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Estudo e tentativa de confirmação para exclusão da conta do cliente</t>
+  </si>
+  <si>
+    <t>Implementação das tarefas (kanbanflow) do dia 28/09</t>
   </si>
 </sst>
 </file>
@@ -486,14 +489,14 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -620,10 +623,18 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="1">
+        <v>42641</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">

--- a/Material/timesheet.xlsx
+++ b/Material/timesheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Dia</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Implementação das tarefas (kanbanflow) do dia 28/09</t>
+  </si>
+  <si>
+    <t>Implementação do pagamento por Créditos</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,10 +641,18 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="1">
+        <v>42646</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/Material/timesheet.xlsx
+++ b/Material/timesheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Dia</t>
   </si>
@@ -69,13 +69,16 @@
   </si>
   <si>
     <t>Implementação do pagamento por Créditos</t>
+  </si>
+  <si>
+    <t>Implementação dos N ingredientes repetidos na marmitex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +98,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -174,6 +185,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -492,7 +504,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,17 +668,25 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="1">
+        <v>42649</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
